--- a/public/uploads/sample data.xlsx
+++ b/public/uploads/sample data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hassan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E5DCFC5-2771-4382-B382-CC0BD3DD85B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{46A5026F-016F-440D-BF70-506EF4B9EE22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -106,8 +107,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,23 +479,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466F8D3F-0872-4144-AFEE-824D7C1F4F0B}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -528,7 +529,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -545,7 +546,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -562,7 +563,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -579,7 +580,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -596,7 +597,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -613,7 +614,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -630,7 +631,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -647,7 +648,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -664,7 +665,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
